--- a/dataset/Daily sales/ds_excel/2023/Dailysales_06_2023.xlsx
+++ b/dataset/Daily sales/ds_excel/2023/Dailysales_06_2023.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,35 +810,187 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="C20" t="n">
-        <v>170</v>
+        <v>681</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>2023-06-26</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>51</v>
+      </c>
+      <c r="C21" t="n">
+        <v>204</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-27</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>148</v>
+      </c>
+      <c r="C22" t="n">
+        <v>562</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>106</v>
+      </c>
+      <c r="C23" t="n">
+        <v>334</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-29</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>57</v>
+      </c>
+      <c r="C24" t="n">
+        <v>228</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>2023-06-30</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>102</v>
+      </c>
+      <c r="C25" t="n">
+        <v>408</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-01</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>84</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>36</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>2480</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8224</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B29" t="n">
+        <v>3108</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10591</v>
+      </c>
+      <c r="D29" t="n">
         <v>15</v>
       </c>
-      <c r="E21" t="n">
-        <v>480</v>
+      <c r="E29" t="n">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -852,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -886,6 +1038,16 @@
           <t>Probability</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Mobile Number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -903,12 +1065,20 @@
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>80</v>
+        <v>72.73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7558710542</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MOHAMMED HABIB MOHAMMED YUSUF SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>272025647539</v>
+        <v>272026502234</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -916,18 +1086,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>45.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9004220184</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FATIMA ZAHRA SHAIKH GHULAM MOHAMMAD</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>272025627183</v>
+        <v>272030402910</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -935,94 +1113,134 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>63.64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BALDEV KATAVARU JAYSVAL </t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>272025647549</v>
+        <v>272025662333</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>151905400038</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9892836865</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>JAISWAR CHHOTELAL MUSSUNRAM</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>272026502234</v>
+        <v>272030329974</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251733300126</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SAVITRI RAMKESH YADAV</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>272027056478</v>
+        <v>272027064220</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900033</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8652784280</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SAROJADEVI GORELAL SAROJ</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>272025627459</v>
+        <v>272025647636</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900168</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8693841792</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>YADAV LAKSHMI</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>272025647663</v>
+        <v>272027236279</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1030,18 +1248,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MOHD FARHAN KALIM SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>272025662333</v>
+        <v>272025647647</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1049,56 +1275,80 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8898936338</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>KHAN MEHMUD AJHAR</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>272027064220</v>
+        <v>272027099870</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>251832900033</t>
+          <t>251733300104</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9867800314</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>OMKAR RAMBABU  GUPTA</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>272027092727</v>
+        <v>272025647685</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>152701800100</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>103</v>
+        <v>208</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7710054549</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>SHITOLE SHSHRIKRUSHNA</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>272025647633</v>
+        <v>272027443002</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1106,18 +1356,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>36.36000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MOHAMMAD KHURSHID MOHAMMAD NABI ANSARI</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>272025647631</v>
+        <v>272030426094</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1125,37 +1383,51 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>272025647636</v>
+        <v>272025647541</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>251832900168</t>
+          <t>251832700072</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>8692010394</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>BHATUSE SUBHAS</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>272025647647</v>
+        <v>272025627197</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1163,75 +1435,107 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>146</v>
+        <v>276</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8591214851</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CHHAGAN PARAMAR</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>272025647653</v>
+        <v>272025627346</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900135</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>149</v>
+        <v>280</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9702407142</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>YOGESH JAGDEV SALUNKHE</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>272025627210</v>
+        <v>272025627357</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900168</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>80</v>
+        <v>54.55</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7302549641</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>GOPAL BAPU DHONDE</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>272027099870</v>
+        <v>272030402918</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>251733300104</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>155</v>
+        <v>319</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>63.64</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AARYA BHARAT CHORAGHE </t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>272025647687</v>
+        <v>272025662581</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1239,37 +1543,51 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>201</v>
+        <v>329</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9324365631</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>272025647685</v>
+        <v>272025677679</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>152701800100</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>208</v>
+        <v>350</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>54.55</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9892466435</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HAFIZ EMAMAUDDIN MO</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>272025609054</v>
+        <v>272025662605</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1277,18 +1595,26 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>359</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>80</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7208645390</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>KORE KAMALAKAR SHRIPATI</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>272025647520</v>
+        <v>272025677653</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1296,18 +1622,26 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>54.55</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7304248541</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SHEKH RESHMA MOHAMAD</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>272025627392</v>
+        <v>272025661843</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1315,18 +1649,26 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>235</v>
+        <v>394</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9867404680</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RAJ KAPOOR</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>272025627445</v>
+        <v>272025647611</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1334,56 +1676,80 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>90</v>
+        <v>45.45</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8779893419</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ASLAM GALIB KHAN</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>272025647541</v>
+        <v>272025627243</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>251832700072</t>
+          <t>251832400063</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8433697361</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>ROMAN DATTATRAY SAKHARU</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>272025627179</v>
+        <v>272025627947</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>151828500043</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>273</v>
+        <v>469</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7045431324</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>YADAV OMPRAKASH RAMNARESH</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>272025627197</v>
+        <v>272030402916</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1391,56 +1757,80 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>276</v>
+        <v>477</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>72.73</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ANIL RAJBALI BIND </t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>272025627346</v>
+        <v>272025662330</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>251832900135</t>
+          <t>152701600325</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>280</v>
+        <v>484</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8425072748</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>THAKAJI GANGARAM BAVDHANE</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>272025627874</v>
+        <v>272025678593</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900077</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>285</v>
+        <v>510</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>80</v>
+        <v>63.64</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8879871158</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>HUSNARA BEGAUM</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>272025647566</v>
+        <v>272025627620</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1448,37 +1838,53 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>304</v>
+        <v>512</v>
       </c>
       <c r="D31" t="n">
         <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8286621369</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>BHAVARIDEVI SOHANALAL GUJAR</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>272025627357</v>
+        <v>272025627236</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>251832900168</t>
+          <t>251832900017</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>312</v>
+        <v>547</v>
       </c>
       <c r="D32" t="n">
         <v>4</v>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7039936005</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SAFIULLAH SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>272025662581</v>
+        <v>272028562938</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1486,18 +1892,26 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>329</v>
+        <v>588</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>70</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NILESH ASHOK SHINDE</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>272025627285</v>
+        <v>272025677921</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1505,37 +1919,53 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>336</v>
+        <v>589</v>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>90</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>7720959192</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>RAUT SAKHARAM SADANAND</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>272025647593</v>
+        <v>272025609101</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900085</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>344</v>
+        <v>602</v>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>90</v>
+        <v>27.27000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9664683604</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ATKARI AMOL DNYANESHVAR</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>272025677679</v>
+        <v>272025609110</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1543,37 +1973,53 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>72.73</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9892053874</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>SHEKH FIROJ MO SULEMAN</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>272025662605</v>
+        <v>272025609053</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900027</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>359</v>
+        <v>621</v>
       </c>
       <c r="D37" t="n">
         <v>5</v>
       </c>
       <c r="E37" t="n">
-        <v>90</v>
+        <v>27.27000000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7900038642</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>RAHUL RAMESH CHAURASIYA</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>272025677653</v>
+        <v>272025663318</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1581,37 +2027,53 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>364</v>
+        <v>625</v>
       </c>
       <c r="D38" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9987155134</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>LAKADA NEELIMA</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>272025627542</v>
+        <v>272025647367</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>152701600616</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>372</v>
+        <v>665</v>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>90</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8422029292</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>SUTAR CHANDRABHAGA</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>272025661843</v>
+        <v>272025647383</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1619,18 +2081,26 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>394</v>
+        <v>726</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MADNE BALARAM</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>272025647611</v>
+        <v>272025637837</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1638,18 +2108,26 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>421</v>
+        <v>746</v>
       </c>
       <c r="D41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8108166437</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>GHADGE GANESH SURESH</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>272025647612</v>
+        <v>272025627546</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1657,18 +2135,26 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>428</v>
+        <v>747</v>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>80</v>
+        <v>54.55</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9969733859</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>GUNDA VARSHA KUNDLIK</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>272025663243</v>
+        <v>272025627692</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1676,56 +2162,80 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>432</v>
+        <v>759</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>90</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8108984237</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>CHAUHAN PRABHAVATI MEHILAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>272025627243</v>
+        <v>272030402900</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>251832400063</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>453</v>
+        <v>760</v>
       </c>
       <c r="D44" t="n">
         <v>7</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>72.73</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BHIMRAJ KALICHARAN BIND </t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>272025627947</v>
+        <v>272025647401</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>151828500043</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>469</v>
+        <v>771</v>
       </c>
       <c r="D45" t="n">
         <v>5</v>
       </c>
       <c r="E45" t="n">
-        <v>20</v>
+        <v>9.090000000000003</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9322635112</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>PATIL ABASO</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>272025647542</v>
+        <v>272025647419</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1733,18 +2243,26 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>474</v>
+        <v>778</v>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>60</v>
+        <v>72.73</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9819097792</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>UBALE LUCKY</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>272025627289</v>
+        <v>272025627660</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1752,18 +2270,26 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>476</v>
+        <v>782</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E47" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9867660531</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MANSURI MO HUSAIN MO RES</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>272025662330</v>
+        <v>272025647433</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1771,18 +2297,26 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>484</v>
+        <v>787</v>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>45.45</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9768834199</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>KASALKAR SUSHILA RATNU</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>272025647551</v>
+        <v>272026258342</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1790,37 +2324,53 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>489</v>
+        <v>797</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
-        <v>70</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9892436841</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HUMERABANO SHAMSHAD SHAIKH </t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>272025678593</v>
+        <v>272025647446</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>251832900077</t>
+          <t>251832900040</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>510</v>
+        <v>799</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>8652536550</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>DHOTRE NAGINA</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>272025627620</v>
+        <v>272030201515</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1828,18 +2378,26 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>512</v>
+        <v>806</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>20</v>
+        <v>27.27000000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ARBAJ MAQSOOD ALI SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>272025664561</v>
+        <v>272025663184</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1847,18 +2405,26 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>518</v>
+        <v>825</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>80</v>
+        <v>90.91</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9869368929</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>RAJARAM NAGNATH JAGDALE</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>272026334086</v>
+        <v>272025661631</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1866,18 +2432,26 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>520</v>
+        <v>843</v>
       </c>
       <c r="D53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9892386351</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MULEMADEVI SHYAMDHAR PAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>272025627236</v>
+        <v>272025661654</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1885,18 +2459,26 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>547</v>
+        <v>849</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>54.55</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7317655179</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>DILIPKUMAR MUNNILAL JAISWAR</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>272026265845</v>
+        <v>272026333864</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1904,18 +2486,26 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>583</v>
+        <v>864</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>80</v>
+        <v>54.55</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9769397649</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LAXMI VINOD KUMAR VISHAVKARMA </t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>272025677921</v>
+        <v>272025627447</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1923,18 +2513,26 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>589</v>
+        <v>867</v>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="n">
-        <v>20</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7710994992</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>AKASH ASHOK JAISWAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>272025609101</v>
+        <v>272025609038</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1942,18 +2540,26 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>602</v>
+        <v>869</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E57" t="n">
-        <v>30</v>
+        <v>90.91</v>
+      </c>
+      <c r="F57" t="n">
+        <v>9370366283</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>RATHOD JIJABAI</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>272025647561</v>
+        <v>272030395971</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1961,18 +2567,26 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>604</v>
+        <v>885</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>80</v>
+        <v>72.73</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GANESH </t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>272025647582</v>
+        <v>272025627885</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1980,18 +2594,26 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>608</v>
+        <v>893</v>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
-        <v>90</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>9594813464</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>KONDHALAKAR ANJANA SHIVAJI</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>272025609110</v>
+        <v>272025661716</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1999,37 +2621,53 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>620</v>
+        <v>903</v>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>80</v>
+        <v>63.64</v>
+      </c>
+      <c r="F60" t="n">
+        <v>7738804343</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>PANDU TIMMAPPA SHETTY</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>272025609053</v>
+        <v>272026333868</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>251832900027</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>621</v>
+        <v>916</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>30</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9336471800</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASHARAFI </t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>272025663318</v>
+        <v>272025627242</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2037,18 +2675,26 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>625</v>
+        <v>933</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>80</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9969254356</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AKSHAY ANANT MESTRY </t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>272025647642</v>
+        <v>272025627286</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2056,37 +2702,53 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>662</v>
+        <v>936</v>
       </c>
       <c r="D63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" t="n">
-        <v>90</v>
+        <v>27.27000000000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>8291328361</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ARJUN KESHV GOHIL</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>272025647367</v>
+        <v>272025627224</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>152701600616</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>665</v>
+        <v>945</v>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>20</v>
+        <v>72.73</v>
+      </c>
+      <c r="F64" t="n">
+        <v>9769168520</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>FAIZ AHMED JAMALUDIN SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>272025647383</v>
+        <v>272025647453</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2094,18 +2756,26 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>726</v>
+        <v>970</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>72.73</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>CHAUDHRAI AMRUTA DEVI</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>272025637837</v>
+        <v>272025627180</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2113,18 +2783,26 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>746</v>
+        <v>978</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>63.64</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>BASAKE PUNDLIK  BHIMRAV</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>272025627546</v>
+        <v>272025647474</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2132,37 +2810,53 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>747</v>
+        <v>990</v>
       </c>
       <c r="D67" t="n">
         <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>60</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>DILEEP KUMAR</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>272025627858</v>
+        <v>272025647484</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832300028</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>749</v>
+        <v>1039</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>70</v>
+        <v>27.27000000000001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>PAWAR VIKAS</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>272025647387</v>
+        <v>272025677907</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2170,56 +2864,80 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>754</v>
+        <v>1108</v>
       </c>
       <c r="D69" t="n">
         <v>5</v>
       </c>
       <c r="E69" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>ABDUL QAYYUM KHAN</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>272025627692</v>
+        <v>272025647425</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900181</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>759</v>
+        <v>1110</v>
       </c>
       <c r="D70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" t="n">
-        <v>20</v>
+        <v>63.64</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>KHAN SAYARABANO</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>272025647401</v>
+        <v>272025637517</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900181</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>771</v>
+        <v>1124</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>54.55</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>KHAN ALFIYA MOHAMMAD ANWAR</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>272025647419</v>
+        <v>272025627387</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2227,37 +2945,53 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>778</v>
+        <v>1133</v>
       </c>
       <c r="D72" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E72" t="n">
-        <v>80</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>IMRAN SHAMSUL HAQ SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>272025627660</v>
+        <v>272025647505</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832600127</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>782</v>
+        <v>1137</v>
       </c>
       <c r="D73" t="n">
         <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>70</v>
+        <v>63.64</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MASKAR MAHADEV</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>272025647433</v>
+        <v>272025627594</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2265,56 +2999,80 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>787</v>
+        <v>1138</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>50</v>
+        <v>63.64</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>VATRE AMRUTA</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>272026258342</v>
+        <v>272025647511</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>152701600506</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>797</v>
+        <v>1148</v>
       </c>
       <c r="D75" t="n">
         <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NEVAGE AJAY</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>272025647446</v>
+        <v>272030330008</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>251832900040</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>799</v>
+        <v>1154</v>
       </c>
       <c r="D76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KHALIDA SHABANAM SARFRAJ KHAN </t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>272025609107</v>
+        <v>272030201552</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2322,18 +3080,26 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>808</v>
+        <v>1174</v>
       </c>
       <c r="D77" t="n">
         <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>90</v>
+        <v>9.090000000000003</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DURGAVATI DEVI LALBAHADUR NAVIK </t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>272025663184</v>
+        <v>272026334041</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2341,18 +3107,26 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>825</v>
+        <v>1191</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>90</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAYUR RAMDAS JADHAV </t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>272025662476</v>
+        <v>272025627677</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2360,18 +3134,26 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>830</v>
+        <v>1199</v>
       </c>
       <c r="D79" t="n">
         <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>90</v>
+        <v>72.73</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>FADTARE  MHADEV</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>272025627386</v>
+        <v>272025609122</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2379,18 +3161,26 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>837</v>
+        <v>1203</v>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>90</v>
+        <v>9.090000000000003</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>KAMBLE ANUSYA</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>272025647467</v>
+        <v>272025627350</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2398,37 +3188,53 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>838</v>
+        <v>1234</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>50</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>YADAV MAHENDRA RAMFAL</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>272025627884</v>
+        <v>272025647540</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900040</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>841</v>
+        <v>1239</v>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E82" t="n">
-        <v>80</v>
+        <v>27.27000000000001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>FARUKHI MO AHMAD</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>272025661631</v>
+        <v>272025647543</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2436,18 +3242,26 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>843</v>
+        <v>1242</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>9.090000000000003</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>DEVKAR ARYA</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>272025661654</v>
+        <v>272025627177</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2455,56 +3269,80 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>849</v>
+        <v>1270</v>
       </c>
       <c r="D84" t="n">
         <v>4</v>
       </c>
       <c r="E84" t="n">
-        <v>60</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>PARVA HARIPRASAD NNUNMUN</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>272025635009</v>
+        <v>272025647502</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900154</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>858</v>
+        <v>1272</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>SOLANKE KRUSHNA</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>272026333864</v>
+        <v>272025627232</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900014</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>864</v>
+        <v>1325</v>
       </c>
       <c r="D86" t="n">
         <v>3</v>
       </c>
       <c r="E86" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>YADAV RAJASHRI SHIVAJI</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>272025627447</v>
+        <v>272025647376</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2512,37 +3350,53 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>867</v>
+        <v>1336</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>YADAV NILAM</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>272025609038</v>
+        <v>272025660620</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900154</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>869</v>
+        <v>1366</v>
       </c>
       <c r="D88" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E88" t="n">
-        <v>90</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>KHAN ASIF ASHIK</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>272025647403</v>
+        <v>272025664676</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2550,18 +3404,26 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>882</v>
+        <v>1384</v>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>40</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>KHAN FARHIN SALIM</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>272025609125</v>
+        <v>272025668632</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2569,18 +3431,26 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>888</v>
+        <v>1420</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" t="n">
-        <v>90</v>
+        <v>54.55</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>SONABAI SHIVAJI ZORE</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>272025627885</v>
+        <v>272025627750</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2588,56 +3458,80 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>893</v>
+        <v>1422</v>
       </c>
       <c r="D91" t="n">
         <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>90</v>
+        <v>90.91</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>YADAV ANIL MARKADE</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>272025661716</v>
+        <v>272026334073</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900063</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>903</v>
+        <v>1423</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>KHAIRUL NISA ABDUL HAMID LOON</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>272025627943</v>
+        <v>272026330405</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832400053</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>913</v>
+        <v>1430</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>90</v>
+        <v>9.090000000000003</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>PATEL RAVINABEN MINESHBHAI</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>272026333868</v>
+        <v>272025647409</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2645,18 +3539,26 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>916</v>
+        <v>1433</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>VARMA HIRALAL</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>272025627356</v>
+        <v>272026326073</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2664,18 +3566,26 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>919</v>
+        <v>1446</v>
       </c>
       <c r="D95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>90</v>
+        <v>72.73</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHANDRAKANT SHRIDHAR PANCHAL </t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>272025647445</v>
+        <v>272028559165</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2683,208 +3593,296 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>928</v>
+        <v>1477</v>
       </c>
       <c r="D96" t="n">
         <v>5</v>
       </c>
       <c r="E96" t="n">
-        <v>60</v>
+        <v>81.81999999999999</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ANJANI SINGH</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>272025627242</v>
+        <v>272030329952</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900156</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>933</v>
+        <v>1562</v>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>90</v>
+        <v>72.73</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ANITADEVI MADHUBAN GUPTA</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>272025627286</v>
+        <v>272025666676</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900085</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>936</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>RAJKARAN HIRALAL MOURYA</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>272025627458</v>
+        <v>272027057103</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900072</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>939</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>90</v>
+        <v>72.73</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>SAVITRA DEVIDAS SHINDE</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>272025627224</v>
+        <v>272027301807</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900058</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>AASHIYA BANO</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>272025647422</v>
+        <v>272027336447</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900090</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>90</v>
+        <v>18.17999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>JAKIR HUSSAIN SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>272025647443</v>
+        <v>272027592893</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900073</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>960</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>PRASANTA KUMAR DAS</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>272025647449</v>
+        <v>272027615470</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900068</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>70</v>
+        <v>9.090000000000003</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>SHIVA HUBLAL RAJBHAR</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>272025647453</v>
+        <v>272027646981</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900033</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E104" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>JANNATUNNISA AYUB KHAN</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>272025627180</v>
+        <v>272027764205</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900139</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E105" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>JAVED HUSSAIN ALTAF HUSSAIN SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>272025647474</v>
+        <v>272028072828</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900133</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>990</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>SAYYADA FATMA ANSARI</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>272027171500</v>
+        <v>272028559137</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -2892,379 +3890,539 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>JAHIDUNNISA KAMALUDDIN ANSARI</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>272025627256</v>
+        <v>272028561707</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900044</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>MUMTAJ CHAND SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>272025647381</v>
+        <v>272028605249</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900058</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1028</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E109" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>SULTANA HUSSAIN SAYYED</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>272025663210</v>
+        <v>272028725616</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900168</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>90</v>
+        <v>36.36000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>AMRAWATI</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>272025647484</v>
+        <v>272028873224</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>251832300028</t>
+          <t>251832900070</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1039</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>ASHOK KUMAR SALIK RAM CHAVRASIYA</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>272025627526</v>
+        <v>272029115693</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900023</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1068</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E112" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>JAMILA KHATOON KHURSHID AHMED ANSARI</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>272025609111</v>
+        <v>272029282241</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900168</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E113" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>VISHAL LALU PRASAD MOURYA</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>272025677907</v>
+        <v>272029286320</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900058</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1108</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>RABIYA ASLAM SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>272025647425</v>
+        <v>272029545532</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>251832900181</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1110</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>70</v>
+        <v>63.64</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>JAY PRAKASH PATWA</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>272025627182</v>
+        <v>272029554204</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900044</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>TAYBUNISA MOHD WASEEM SHAH</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>272025627220</v>
+        <v>272029669154</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900023</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E117" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>SURESH SHIVRAM YADAV</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>272025627640</v>
+        <v>272029728832</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900156</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1120</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>AKBAR KHAN</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>272025647436</v>
+        <v>272029812199</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832400068</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1121</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E119" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>SANGEETA JAGARNATH SAHANI</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>272025637517</v>
+        <v>272030043358</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>251832900181</t>
+          <t>251832900071</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1124</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>KHAIRUNISA ABDULKARIM SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>272025627387</v>
+        <v>272030065396</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900135</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1133</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>ARJUN DWARKANATH NATEKAR</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>272025647505</v>
+        <v>272030065415</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>251832600127</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>1137</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
         <v>4</v>
       </c>
       <c r="E122" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>SALAUDDIN PISKAR ALI MANIHAR</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>272025627594</v>
+        <v>272030138861</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900079</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1138</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>DHANSHREE CHANDRAKANT PATIL</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>272025647511</v>
+        <v>272030166458</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>152701600506</t>
+          <t>251832900013</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>SAMINA ABDUL QAIUM ANSARI</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>272025647356</v>
+        <v>272030211548</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1164</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
         <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>PYARELAL RAMKARAN BIND</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>272025627192</v>
+        <v>272030211550</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900168</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>SACHIN BANSILAL GUPTA</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>272025627187</v>
+        <v>272030211551</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3272,75 +4430,107 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAM HARAKH RAMESHWAR YADAV </t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>272025627254</v>
+        <v>272030211553</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
         <v>5</v>
       </c>
       <c r="E128" t="n">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>LAXMAN AJAY MALLIK</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>272025647489</v>
+        <v>272030211555</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1181</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
       </c>
       <c r="E129" t="n">
-        <v>70</v>
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>MANOJ SOTIM PAL</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>272025647457</v>
+        <v>272030211556</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>SAYYED SAMIR SAMIULLAH</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>272026334041</v>
+        <v>272030211558</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3348,189 +4538,269 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1191</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E131" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NASHIKET NIVRUTTI PILANE </t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>272025627677</v>
+        <v>272030211561</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1199</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E132" t="n">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>SAHEBLAL PATIRAM YADAV</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>272025609122</v>
+        <v>272030211563</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900069</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1203</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>SHAFINA KHATOON SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>272025627599</v>
+        <v>272030255194</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900046</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1219</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
         <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>80</v>
+        <v>63.64</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>RIZWANA ZUBAIR AHMED SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>272025616740</v>
+        <v>272030287561</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900167</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1231</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>NANDLAL MURLI JAISWAR</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>272026334061</v>
+        <v>272030329954</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900059</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1233</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E136" t="n">
-        <v>20</v>
+        <v>63.64</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>RAVI KUMAR JITENDRA JAISWAR</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>272025627350</v>
+        <v>272030330030</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900155</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
         <v>4</v>
       </c>
       <c r="E137" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>ANJUM MAKSUD KHAN</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>272025647485</v>
+        <v>272030352264</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900029</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1238</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
         <v>5</v>
       </c>
       <c r="E138" t="n">
-        <v>90</v>
+        <v>63.64</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>ABDUL HAQ ABDUL WAHAB SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>272025647540</v>
+        <v>272030395981</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>251832900040</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1239</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>30</v>
+        <v>63.64</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABDULALATIF MUNIRAAHAMAD SHEKH </t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>272025647543</v>
+        <v>272030428000</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900058</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1242</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E140" t="n">
-        <v>10</v>
+        <v>63.64</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>ALI TAJ USMAN ALI SHAIKH</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>272025660283</v>
+        <v>272030429820</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3538,18 +4808,26 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>70</v>
+        <v>63.64</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MO IRSHAD </t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>272025617713</v>
+        <v>272030450517</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -3557,1457 +4835,48 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1255</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>80</v>
+        <v>63.64</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NILAM BHAUSAHEB SALUNKE  </t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>272026334056</v>
+        <v>272030476658</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>251832900156</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1258</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E143" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>272025627177</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>1270</v>
-      </c>
-      <c r="D144" t="n">
-        <v>4</v>
-      </c>
-      <c r="E144" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>272025647502</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>251832900154</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>1272</v>
-      </c>
-      <c r="D145" t="n">
-        <v>5</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>272025677915</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>1274</v>
-      </c>
-      <c r="D146" t="n">
-        <v>5</v>
-      </c>
-      <c r="E146" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>272025647508</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>1284</v>
-      </c>
-      <c r="D147" t="n">
-        <v>5</v>
-      </c>
-      <c r="E147" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>272025647519</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>1285</v>
-      </c>
-      <c r="D148" t="n">
-        <v>4</v>
-      </c>
-      <c r="E148" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>272025609037</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>1311</v>
-      </c>
-      <c r="D149" t="n">
-        <v>5</v>
-      </c>
-      <c r="E149" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>272025627232</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>251832900014</t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>1325</v>
-      </c>
-      <c r="D150" t="n">
-        <v>4</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>272025647376</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D151" t="n">
-        <v>3</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>272025627450</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>1339</v>
-      </c>
-      <c r="D152" t="n">
-        <v>5</v>
-      </c>
-      <c r="E152" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>272025660620</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>251832900154</t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D153" t="n">
-        <v>4</v>
-      </c>
-      <c r="E153" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>272025664676</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>1384</v>
-      </c>
-      <c r="D154" t="n">
-        <v>3</v>
-      </c>
-      <c r="E154" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>272025663153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C155" t="n">
-        <v>1395</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4</v>
-      </c>
-      <c r="E155" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>272025666663</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C156" t="n">
-        <v>1398</v>
-      </c>
-      <c r="D156" t="n">
-        <v>5</v>
-      </c>
-      <c r="E156" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>272025661888</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C157" t="n">
-        <v>1410</v>
-      </c>
-      <c r="D157" t="n">
-        <v>9</v>
-      </c>
-      <c r="E157" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>272025627902</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C158" t="n">
-        <v>1418</v>
-      </c>
-      <c r="D158" t="n">
-        <v>7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>272025668632</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C159" t="n">
-        <v>1420</v>
-      </c>
-      <c r="D159" t="n">
-        <v>3</v>
-      </c>
-      <c r="E159" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>272025627750</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C160" t="n">
-        <v>1422</v>
-      </c>
-      <c r="D160" t="n">
-        <v>5</v>
-      </c>
-      <c r="E160" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>272026334073</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>251832900063</t>
-        </is>
-      </c>
-      <c r="C161" t="n">
-        <v>1423</v>
-      </c>
-      <c r="D161" t="n">
-        <v>4</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>272025672564</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C162" t="n">
-        <v>1425</v>
-      </c>
-      <c r="D162" t="n">
-        <v>3</v>
-      </c>
-      <c r="E162" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>272026330405</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>251832400053</t>
-        </is>
-      </c>
-      <c r="C163" t="n">
-        <v>1430</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4</v>
-      </c>
-      <c r="E163" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>272025647409</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C164" t="n">
-        <v>1433</v>
-      </c>
-      <c r="D164" t="n">
-        <v>7</v>
-      </c>
-      <c r="E164" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>272026326073</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>1446</v>
-      </c>
-      <c r="D165" t="n">
-        <v>3</v>
-      </c>
-      <c r="E165" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>272025635012</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>6</v>
-      </c>
-      <c r="E166" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>272025641528</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>7</v>
-      </c>
-      <c r="E167" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>272025666676</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>251832900085</t>
-        </is>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>272025677690</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>3</v>
-      </c>
-      <c r="E169" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>272025845825</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>8</v>
-      </c>
-      <c r="E170" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>272026769336</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>272026771781</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>3</v>
-      </c>
-      <c r="E172" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>272027057103</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C173" t="n">
-        <v>0</v>
-      </c>
-      <c r="D173" t="n">
-        <v>2</v>
-      </c>
-      <c r="E173" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>272027236279</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>0</v>
-      </c>
-      <c r="D174" t="n">
-        <v>3</v>
-      </c>
-      <c r="E174" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>272027301807</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>0</v>
-      </c>
-      <c r="D175" t="n">
-        <v>3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>272027336447</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>251832900090</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>0</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4</v>
-      </c>
-      <c r="E176" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>272027443002</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>0</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>272027592893</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>251832900073</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>0</v>
-      </c>
-      <c r="D178" t="n">
-        <v>4</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>272027615470</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>251832900068</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>0</v>
-      </c>
-      <c r="D179" t="n">
-        <v>4</v>
-      </c>
-      <c r="E179" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>272027646981</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>251832900033</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>0</v>
-      </c>
-      <c r="D180" t="n">
-        <v>3</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>272027764205</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>251832900139</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>0</v>
-      </c>
-      <c r="D181" t="n">
-        <v>7</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>272027804853</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>0</v>
-      </c>
-      <c r="D182" t="n">
-        <v>3</v>
-      </c>
-      <c r="E182" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>272028072828</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>251832900133</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>0</v>
-      </c>
-      <c r="D183" t="n">
-        <v>3</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>272028559137</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>0</v>
-      </c>
-      <c r="D184" t="n">
-        <v>4</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>272028559165</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>0</v>
-      </c>
-      <c r="D185" t="n">
-        <v>5</v>
-      </c>
-      <c r="E185" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>272028561707</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>251832900044</t>
-        </is>
-      </c>
-      <c r="C186" t="n">
-        <v>0</v>
-      </c>
-      <c r="D186" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>272028562938</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C187" t="n">
-        <v>0</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2</v>
-      </c>
-      <c r="E187" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>272028605249</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C188" t="n">
-        <v>0</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>272028673685</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C189" t="n">
-        <v>0</v>
-      </c>
-      <c r="D189" t="n">
-        <v>7</v>
-      </c>
-      <c r="E189" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>272028725616</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C190" t="n">
-        <v>0</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2</v>
-      </c>
-      <c r="E190" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>272028873224</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C191" t="n">
-        <v>0</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>272029115693</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>251832900023</t>
-        </is>
-      </c>
-      <c r="C192" t="n">
-        <v>0</v>
-      </c>
-      <c r="D192" t="n">
-        <v>5</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>272029229165</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C193" t="n">
-        <v>0</v>
-      </c>
-      <c r="D193" t="n">
-        <v>6</v>
-      </c>
-      <c r="E193" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>272029282241</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>251832900168</t>
-        </is>
-      </c>
-      <c r="C194" t="n">
-        <v>0</v>
-      </c>
-      <c r="D194" t="n">
-        <v>7</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>272029286320</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>251832900058</t>
-        </is>
-      </c>
-      <c r="C195" t="n">
-        <v>0</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>272029545532</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C196" t="n">
-        <v>0</v>
-      </c>
-      <c r="D196" t="n">
-        <v>6</v>
-      </c>
-      <c r="E196" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>272029554204</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>251832900044</t>
-        </is>
-      </c>
-      <c r="C197" t="n">
-        <v>0</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>272029669154</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>251832900023</t>
-        </is>
-      </c>
-      <c r="C198" t="n">
-        <v>0</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>272029728832</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>251832900156</t>
-        </is>
-      </c>
-      <c r="C199" t="n">
-        <v>0</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>272029812199</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>251832400068</t>
-        </is>
-      </c>
-      <c r="C200" t="n">
-        <v>0</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>272030043358</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>251832900071</t>
-        </is>
-      </c>
-      <c r="C201" t="n">
-        <v>0</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>272030065396</v>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C202" t="n">
-        <v>0</v>
-      </c>
-      <c r="D202" t="n">
-        <v>1</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>272030065415</v>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C203" t="n">
-        <v>0</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>272030138861</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>251832900079</t>
-        </is>
-      </c>
-      <c r="C204" t="n">
-        <v>0</v>
-      </c>
-      <c r="D204" t="n">
-        <v>2</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>272030166458</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>251832900013</t>
-        </is>
-      </c>
-      <c r="C205" t="n">
-        <v>0</v>
-      </c>
-      <c r="D205" t="n">
-        <v>2</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>272030201515</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C206" t="n">
-        <v>0</v>
-      </c>
-      <c r="D206" t="n">
-        <v>7</v>
-      </c>
-      <c r="E206" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>272030201550</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C207" t="n">
-        <v>0</v>
-      </c>
-      <c r="D207" t="n">
-        <v>6</v>
-      </c>
-      <c r="E207" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>272030201552</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C208" t="n">
-        <v>0</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4</v>
-      </c>
-      <c r="E208" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>272030201560</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C209" t="n">
-        <v>0</v>
-      </c>
-      <c r="D209" t="n">
-        <v>3</v>
-      </c>
-      <c r="E209" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>272030211548</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C210" t="n">
-        <v>0</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>272030211550</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>251832900168</t>
-        </is>
-      </c>
-      <c r="C211" t="n">
-        <v>0</v>
-      </c>
-      <c r="D211" t="n">
-        <v>3</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>272030211551</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C212" t="n">
-        <v>0</v>
-      </c>
-      <c r="D212" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>272030211553</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C213" t="n">
-        <v>0</v>
-      </c>
-      <c r="D213" t="n">
-        <v>5</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>272030211555</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C214" t="n">
-        <v>0</v>
-      </c>
-      <c r="D214" t="n">
-        <v>3</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>272030211556</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C215" t="n">
-        <v>0</v>
-      </c>
-      <c r="D215" t="n">
-        <v>3</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>272030211558</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="C216" t="n">
-        <v>0</v>
-      </c>
-      <c r="D216" t="n">
-        <v>5</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>272030211561</v>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C217" t="n">
-        <v>0</v>
-      </c>
-      <c r="D217" t="n">
-        <v>3</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>272030211563</v>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>251832900069</t>
-        </is>
-      </c>
-      <c r="C218" t="n">
-        <v>0</v>
-      </c>
-      <c r="D218" t="n">
-        <v>3</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>LAL CHANDRA SHANOHAR RAM GUPTA</t>
+        </is>
       </c>
     </row>
   </sheetData>
